--- a/Code/Results/Cases/Case_5_195/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_195/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.03916419819042</v>
+        <v>19.93587785526113</v>
       </c>
       <c r="C2">
-        <v>13.08295949195216</v>
+        <v>9.474960569113012</v>
       </c>
       <c r="D2">
-        <v>5.083826033221515</v>
+        <v>8.10468717712218</v>
       </c>
       <c r="E2">
-        <v>7.252041713978659</v>
+        <v>12.69313455404209</v>
       </c>
       <c r="F2">
-        <v>22.9853322056114</v>
+        <v>35.67475656164123</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.667461791096447</v>
+        <v>9.93129353983379</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.661946291600508</v>
+        <v>11.21381394625832</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.99788372251779</v>
+        <v>27.4364470073285</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,31 +462,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.47362859202633</v>
+        <v>19.39582765267483</v>
       </c>
       <c r="C3">
-        <v>12.45888367752439</v>
+        <v>9.188252085129255</v>
       </c>
       <c r="D3">
-        <v>4.979375293778402</v>
+        <v>8.09812369119679</v>
       </c>
       <c r="E3">
-        <v>7.313251582364338</v>
+        <v>12.7300669480721</v>
       </c>
       <c r="F3">
-        <v>22.86982014299566</v>
+        <v>35.81446367997764</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.746687137123793</v>
+        <v>9.959825859776213</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.415315144198674</v>
+        <v>11.18387958347973</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.04150717283615</v>
+        <v>27.56367958688861</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,31 +503,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.45953764247428</v>
+        <v>19.05820643016793</v>
       </c>
       <c r="C4">
-        <v>12.06016229695423</v>
+        <v>9.00695041679678</v>
       </c>
       <c r="D4">
-        <v>4.915566139026768</v>
+        <v>8.094827478781148</v>
       </c>
       <c r="E4">
-        <v>7.353980242223139</v>
+        <v>12.75427584390294</v>
       </c>
       <c r="F4">
-        <v>22.82633857546334</v>
+        <v>35.90987989271568</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.796718244321714</v>
+        <v>9.978246839644353</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.261991362369012</v>
+        <v>11.16662915140338</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.08921935701049</v>
+        <v>27.64887083926283</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,31 +544,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.0330322947459</v>
+        <v>18.91929841816435</v>
       </c>
       <c r="C5">
-        <v>11.89390475635389</v>
+        <v>8.931830301088867</v>
       </c>
       <c r="D5">
-        <v>4.889670181440209</v>
+        <v>8.093669891693935</v>
       </c>
       <c r="E5">
-        <v>7.371353854127932</v>
+        <v>12.76452704375937</v>
       </c>
       <c r="F5">
-        <v>22.815258619731</v>
+        <v>35.95117724214575</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.817463710117167</v>
+        <v>9.985981044286991</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.199114440105604</v>
+        <v>11.15988749693787</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.11366734871975</v>
+        <v>27.6853594949701</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,31 +585,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.96141241605329</v>
+        <v>18.89615866105433</v>
       </c>
       <c r="C6">
-        <v>11.86607413861131</v>
+        <v>8.919284499285784</v>
       </c>
       <c r="D6">
-        <v>4.885377379507265</v>
+        <v>8.093488919649563</v>
       </c>
       <c r="E6">
-        <v>7.374285208563697</v>
+        <v>12.76625257090624</v>
       </c>
       <c r="F6">
-        <v>22.81381189369986</v>
+        <v>35.9581802114649</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.820930312822117</v>
+        <v>9.987279064026442</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.188652291741287</v>
+        <v>11.15878556121454</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.11802171137813</v>
+        <v>27.69152531028189</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,31 +626,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.45383924526111</v>
+        <v>19.05633817026191</v>
       </c>
       <c r="C7">
-        <v>12.05793518358717</v>
+        <v>9.005942216709279</v>
       </c>
       <c r="D7">
-        <v>4.915216430764515</v>
+        <v>8.094811114026271</v>
       </c>
       <c r="E7">
-        <v>7.3542114240518</v>
+        <v>12.75441253198791</v>
       </c>
       <c r="F7">
-        <v>22.82616262074183</v>
+        <v>35.91042707852537</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.796996566581734</v>
+        <v>9.978350223762982</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.261144876817963</v>
+        <v>11.16653705965082</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.08952914539181</v>
+        <v>27.64935576815446</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,31 +667,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.51034658980046</v>
+        <v>19.75103075546535</v>
       </c>
       <c r="C8">
-        <v>12.87107384100714</v>
+        <v>9.377244163334725</v>
       </c>
       <c r="D8">
-        <v>5.047759115108112</v>
+        <v>8.10227247933682</v>
       </c>
       <c r="E8">
-        <v>7.272484937751873</v>
+        <v>12.70555117263828</v>
       </c>
       <c r="F8">
-        <v>22.9396545403033</v>
+        <v>35.72092272928638</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.694496338885284</v>
+        <v>9.940944683314559</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.577345877315972</v>
+        <v>11.20326065523017</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.0084264439125</v>
+        <v>27.47884628519461</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,31 +708,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.20857271050406</v>
+        <v>21.0577030607798</v>
       </c>
       <c r="C9">
-        <v>14.33781869194738</v>
+        <v>10.06025832788181</v>
       </c>
       <c r="D9">
-        <v>5.309183542913388</v>
+        <v>8.122675681328474</v>
       </c>
       <c r="E9">
-        <v>7.137882746827279</v>
+        <v>12.62186580809294</v>
       </c>
       <c r="F9">
-        <v>23.39089985501707</v>
+        <v>35.42612554349309</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.504075822412916</v>
+        <v>9.874718186583802</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.179288801555565</v>
+        <v>11.28405212049566</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.02694255103821</v>
+        <v>27.20080800569284</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,31 +749,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.68097562500855</v>
+        <v>21.97427599352037</v>
       </c>
       <c r="C10">
-        <v>15.33295010513174</v>
+        <v>10.53056907621581</v>
       </c>
       <c r="D10">
-        <v>5.500846149519927</v>
+        <v>8.141114242718215</v>
       </c>
       <c r="E10">
-        <v>7.055686269209493</v>
+        <v>12.56774175984621</v>
       </c>
       <c r="F10">
-        <v>23.87559066800587</v>
+        <v>35.25685513862346</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.370007031284672</v>
+        <v>9.83036124945763</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.606851385290934</v>
+        <v>11.34850287659259</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.1643681967177</v>
+        <v>27.03119049047493</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,31 +790,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.7473596114722</v>
+        <v>22.38005833456704</v>
       </c>
       <c r="C11">
-        <v>15.76715790726015</v>
+        <v>10.73697490172286</v>
       </c>
       <c r="D11">
-        <v>5.58770257615633</v>
+        <v>8.150235116588801</v>
       </c>
       <c r="E11">
-        <v>7.022172670708825</v>
+        <v>12.54470980996095</v>
       </c>
       <c r="F11">
-        <v>24.13192660942692</v>
+        <v>35.19022169840531</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.310136866609951</v>
+        <v>9.811106317825862</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.797559420925669</v>
+        <v>11.37887062419716</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.25701784952411</v>
+        <v>26.9616196010302</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,31 +831,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.1429071895304</v>
+        <v>22.5319817165591</v>
       </c>
       <c r="C12">
-        <v>15.9288936730572</v>
+        <v>10.81400007320556</v>
       </c>
       <c r="D12">
-        <v>5.620526938719535</v>
+        <v>8.153792882682142</v>
       </c>
       <c r="E12">
-        <v>7.01006285372656</v>
+        <v>12.5362161969064</v>
       </c>
       <c r="F12">
-        <v>24.23433624461969</v>
+        <v>35.16648782045977</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.287613692976442</v>
+        <v>9.803947030009223</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.86918927910817</v>
+        <v>11.3905156392658</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.2966916853378</v>
+        <v>26.93637170920278</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,31 +872,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.05808476602323</v>
+        <v>22.49934153505555</v>
       </c>
       <c r="C13">
-        <v>15.89418094928197</v>
+        <v>10.79746262307884</v>
       </c>
       <c r="D13">
-        <v>5.613460844774262</v>
+        <v>8.153022058547887</v>
       </c>
       <c r="E13">
-        <v>7.012644684842114</v>
+        <v>12.53803531149311</v>
       </c>
       <c r="F13">
-        <v>24.21204017102262</v>
+        <v>35.17153255836234</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.292458070275818</v>
+        <v>9.805483043843754</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.85378920614148</v>
+        <v>11.38800129761122</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.28793911544977</v>
+        <v>26.94176040920662</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,31 +913,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.78006657473359</v>
+        <v>22.39259269388036</v>
       </c>
       <c r="C14">
-        <v>15.78051803660824</v>
+        <v>10.74333485725698</v>
       </c>
       <c r="D14">
-        <v>5.590404483056956</v>
+        <v>8.150525743010272</v>
       </c>
       <c r="E14">
-        <v>7.021164603052986</v>
+        <v>12.54400646672028</v>
       </c>
       <c r="F14">
-        <v>24.14024386562388</v>
+        <v>35.1882390174657</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.308280972511975</v>
+        <v>9.810514674262048</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.803464432234694</v>
+        <v>11.37982578392721</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.26018842534214</v>
+        <v>26.95952042137388</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,31 +954,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.60869914424392</v>
+        <v>22.32697597961226</v>
       </c>
       <c r="C15">
-        <v>15.71054528787022</v>
+        <v>10.71003062635929</v>
       </c>
       <c r="D15">
-        <v>5.576272650661528</v>
+        <v>8.149010160764036</v>
       </c>
       <c r="E15">
-        <v>7.026459694992734</v>
+        <v>12.54769366177015</v>
       </c>
       <c r="F15">
-        <v>24.09696733029892</v>
+        <v>35.1986676129005</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.317991893992002</v>
+        <v>9.813613882779059</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.772561480541654</v>
+        <v>11.37483681901117</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.24379545656092</v>
+        <v>26.97054198677944</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,31 +995,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.61012126429433</v>
+        <v>21.94752087255077</v>
       </c>
       <c r="C16">
-        <v>15.30419868028784</v>
+        <v>10.51692366078785</v>
       </c>
       <c r="D16">
-        <v>5.495161563723181</v>
+        <v>8.140532794442407</v>
       </c>
       <c r="E16">
-        <v>7.057956456856336</v>
+        <v>12.56927889423798</v>
       </c>
       <c r="F16">
-        <v>23.85957611867026</v>
+        <v>35.2614191057517</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.373941144840502</v>
+        <v>9.831638129198012</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.594308109481153</v>
+        <v>11.34653891864664</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.15894179599156</v>
+        <v>27.03589031951676</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,31 +1036,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.98267020725371</v>
+        <v>21.71177894044974</v>
       </c>
       <c r="C17">
-        <v>15.05015755640694</v>
+        <v>10.3964886133869</v>
       </c>
       <c r="D17">
-        <v>5.445303653830908</v>
+        <v>8.135518896727344</v>
       </c>
       <c r="E17">
-        <v>7.07828804085925</v>
+        <v>12.58292747640883</v>
       </c>
       <c r="F17">
-        <v>23.72326319737235</v>
+        <v>35.30257639969734</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.408542025230506</v>
+        <v>9.842931442350723</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.483951990557449</v>
+        <v>11.32944389687418</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.11478986185021</v>
+        <v>27.07792727926891</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,31 +1077,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.61627981476763</v>
+        <v>21.5751419595811</v>
       </c>
       <c r="C18">
-        <v>14.90230112607385</v>
+        <v>10.32651048857633</v>
       </c>
       <c r="D18">
-        <v>5.416596446449359</v>
+        <v>8.132704131509751</v>
       </c>
       <c r="E18">
-        <v>7.090345739664586</v>
+        <v>12.59092740419647</v>
       </c>
       <c r="F18">
-        <v>23.64822372877374</v>
+        <v>35.3272244792256</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.428549597813026</v>
+        <v>9.849513996285495</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.420123133569362</v>
+        <v>11.31971034230999</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.09221637314726</v>
+        <v>27.1028197932573</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,31 +1118,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.49127866894739</v>
+        <v>21.52870383960412</v>
       </c>
       <c r="C19">
-        <v>14.85194204327166</v>
+        <v>10.30269733443677</v>
       </c>
       <c r="D19">
-        <v>5.406872083698964</v>
+        <v>8.131763013234524</v>
       </c>
       <c r="E19">
-        <v>7.094490018191188</v>
+        <v>12.59366175455104</v>
       </c>
       <c r="F19">
-        <v>23.62338851358225</v>
+        <v>35.33573719381204</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.435342401245069</v>
+        <v>9.85175768697499</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.398452216170455</v>
+        <v>11.31643190186328</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.08505003189466</v>
+        <v>27.11137041704165</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,31 +1159,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.05003153719392</v>
+        <v>21.73698315834119</v>
       </c>
       <c r="C20">
-        <v>15.07738088774585</v>
+        <v>10.40938270318714</v>
       </c>
       <c r="D20">
-        <v>5.450614386252561</v>
+        <v>8.136045494387441</v>
       </c>
       <c r="E20">
-        <v>7.076085923337335</v>
+        <v>12.58145907933873</v>
       </c>
       <c r="F20">
-        <v>23.73742436931252</v>
+        <v>35.29809411801507</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.404847813280536</v>
+        <v>9.841720256588628</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.495736649124483</v>
+        <v>11.33125347847744</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.11919600875161</v>
+        <v>27.07337843791536</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,31 +1200,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.86195070506508</v>
+        <v>22.4239955578805</v>
       </c>
       <c r="C21">
-        <v>15.81397676095924</v>
+        <v>10.75926471585169</v>
       </c>
       <c r="D21">
-        <v>5.597178631212399</v>
+        <v>8.151256164338418</v>
       </c>
       <c r="E21">
-        <v>7.01864613135749</v>
+        <v>12.54224640711777</v>
       </c>
       <c r="F21">
-        <v>24.16118583007715</v>
+        <v>35.18329118952621</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.303629479522491</v>
+        <v>9.809033181254543</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.818262268754507</v>
+        <v>11.38222322800761</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.26821292271177</v>
+        <v>26.95427405455399</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,31 +1241,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.9980058227165</v>
+        <v>22.86281765702426</v>
       </c>
       <c r="C22">
-        <v>16.27970401821764</v>
+        <v>10.98128993499753</v>
       </c>
       <c r="D22">
-        <v>5.692573489491497</v>
+        <v>8.161802011738841</v>
       </c>
       <c r="E22">
-        <v>6.984504923484536</v>
+        <v>12.51794791324244</v>
       </c>
       <c r="F22">
-        <v>24.4693441692544</v>
+        <v>35.11700008018918</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.238335818096292</v>
+        <v>9.788440195462824</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.025615024288793</v>
+        <v>11.41637983770337</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.39246705789693</v>
+        <v>26.88282979775409</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,31 +1282,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.39603612638785</v>
+        <v>22.629581705507</v>
       </c>
       <c r="C23">
-        <v>16.03257840429787</v>
+        <v>10.86341437870539</v>
       </c>
       <c r="D23">
-        <v>5.641701002145642</v>
+        <v>8.156118675392115</v>
       </c>
       <c r="E23">
-        <v>7.002407507816906</v>
+        <v>12.53079500007771</v>
       </c>
       <c r="F23">
-        <v>24.30196147654718</v>
+        <v>35.1515787858581</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.273110065115865</v>
+        <v>9.799360818851545</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.915273256168197</v>
+        <v>11.39807432735969</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.3236100456636</v>
+        <v>26.92037368598078</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,31 +1323,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.01959511975051</v>
+        <v>21.72559176566823</v>
       </c>
       <c r="C24">
-        <v>15.06507883866563</v>
+        <v>10.40355558122436</v>
       </c>
       <c r="D24">
-        <v>5.448213537343662</v>
+        <v>8.135807208323662</v>
       </c>
       <c r="E24">
-        <v>7.077080353686969</v>
+        <v>12.58212246448974</v>
       </c>
       <c r="F24">
-        <v>23.73101174975032</v>
+        <v>35.30011748613903</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.40651760716653</v>
+        <v>9.842267553654322</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.490409996724543</v>
+        <v>11.33043507156161</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.11719525659603</v>
+        <v>27.07543271143611</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.24561112669151</v>
+        <v>20.711202308535</v>
       </c>
       <c r="C25">
-        <v>13.95525449486644</v>
+        <v>9.88075375985502</v>
       </c>
       <c r="D25">
-        <v>5.238442278883227</v>
+        <v>8.116545193993085</v>
       </c>
       <c r="E25">
-        <v>7.171445215071887</v>
+        <v>12.64320990978359</v>
       </c>
       <c r="F25">
-        <v>23.24285825528671</v>
+        <v>35.49760049959088</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.554518434861737</v>
+        <v>9.891875957499948</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.018792377449129</v>
+        <v>11.26128207412268</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.00130439543722</v>
+        <v>27.269961289148</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_195/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_195/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.93587785526113</v>
+        <v>24.03916419819042</v>
       </c>
       <c r="C2">
-        <v>9.474960569113012</v>
+        <v>13.08295949195209</v>
       </c>
       <c r="D2">
-        <v>8.10468717712218</v>
+        <v>5.083826033221532</v>
       </c>
       <c r="E2">
-        <v>12.69313455404209</v>
+        <v>7.25204171397866</v>
       </c>
       <c r="F2">
-        <v>35.67475656164123</v>
+        <v>22.98533220561152</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.93129353983379</v>
+        <v>5.667461791096478</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.21381394625832</v>
+        <v>7.661946291600509</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>27.4364470073285</v>
+        <v>16.99788372251791</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,31 +462,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.39582765267483</v>
+        <v>22.47362859202635</v>
       </c>
       <c r="C3">
-        <v>9.188252085129255</v>
+        <v>12.45888367752437</v>
       </c>
       <c r="D3">
-        <v>8.09812369119679</v>
+        <v>4.979375293778351</v>
       </c>
       <c r="E3">
-        <v>12.7300669480721</v>
+        <v>7.313251582364345</v>
       </c>
       <c r="F3">
-        <v>35.81446367997764</v>
+        <v>22.8698201429956</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.959825859776213</v>
+        <v>5.746687137123862</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.18387958347973</v>
+        <v>7.415315144198678</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>27.56367958688861</v>
+        <v>17.04150717283616</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,31 +503,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.05820643016793</v>
+        <v>21.45953764247428</v>
       </c>
       <c r="C4">
-        <v>9.00695041679678</v>
+        <v>12.06016229695442</v>
       </c>
       <c r="D4">
-        <v>8.094827478781148</v>
+        <v>4.915566139026931</v>
       </c>
       <c r="E4">
-        <v>12.75427584390294</v>
+        <v>7.353980242223142</v>
       </c>
       <c r="F4">
-        <v>35.90987989271568</v>
+        <v>22.82633857546336</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.978246839644353</v>
+        <v>5.796718244321681</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.16662915140338</v>
+        <v>7.261991362368953</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>27.64887083926283</v>
+        <v>17.08921935701046</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,31 +544,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.91929841816435</v>
+        <v>21.03303229474594</v>
       </c>
       <c r="C5">
-        <v>8.931830301088867</v>
+        <v>11.8939047563539</v>
       </c>
       <c r="D5">
-        <v>8.093669891693935</v>
+        <v>4.889670181440215</v>
       </c>
       <c r="E5">
-        <v>12.76452704375937</v>
+        <v>7.371353854128055</v>
       </c>
       <c r="F5">
-        <v>35.95117724214575</v>
+        <v>22.81525861973123</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.985981044286991</v>
+        <v>5.817463710117265</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.15988749693787</v>
+        <v>7.199114440105658</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>27.6853594949701</v>
+        <v>17.11366734871995</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,31 +585,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.89615866105433</v>
+        <v>20.96141241605328</v>
       </c>
       <c r="C6">
-        <v>8.919284499285784</v>
+        <v>11.8660741386112</v>
       </c>
       <c r="D6">
-        <v>8.093488919649563</v>
+        <v>4.88537737950695</v>
       </c>
       <c r="E6">
-        <v>12.76625257090624</v>
+        <v>7.374285208563573</v>
       </c>
       <c r="F6">
-        <v>35.9581802114649</v>
+        <v>22.8138118936998</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.987279064026442</v>
+        <v>5.820930312822217</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.15878556121454</v>
+        <v>7.188652291741268</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>27.69152531028189</v>
+        <v>17.11802171137819</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,31 +626,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.05633817026191</v>
+        <v>21.4538392452611</v>
       </c>
       <c r="C7">
-        <v>9.005942216709279</v>
+        <v>12.05793518358734</v>
       </c>
       <c r="D7">
-        <v>8.094811114026271</v>
+        <v>4.915216430764567</v>
       </c>
       <c r="E7">
-        <v>12.75441253198791</v>
+        <v>7.354211424051862</v>
       </c>
       <c r="F7">
-        <v>35.91042707852537</v>
+        <v>22.82616262074179</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.978350223762982</v>
+        <v>5.796996566581767</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.16653705965082</v>
+        <v>7.261144876817969</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>27.64935576815446</v>
+        <v>17.08952914539179</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,31 +667,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.75103075546535</v>
+        <v>23.51034658980043</v>
       </c>
       <c r="C8">
-        <v>9.377244163334725</v>
+        <v>12.87107384100712</v>
       </c>
       <c r="D8">
-        <v>8.10227247933682</v>
+        <v>5.047759115108059</v>
       </c>
       <c r="E8">
-        <v>12.70555117263828</v>
+        <v>7.272484937751873</v>
       </c>
       <c r="F8">
-        <v>35.72092272928638</v>
+        <v>22.9396545403034</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.940944683314559</v>
+        <v>5.694496338885351</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.20326065523017</v>
+        <v>7.577345877315983</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>27.47884628519461</v>
+        <v>17.00842644391259</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,31 +708,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.0577030607798</v>
+        <v>27.20857271050405</v>
       </c>
       <c r="C9">
-        <v>10.06025832788181</v>
+        <v>14.33781869194729</v>
       </c>
       <c r="D9">
-        <v>8.122675681328474</v>
+        <v>5.3091835429133</v>
       </c>
       <c r="E9">
-        <v>12.62186580809294</v>
+        <v>7.137882746827229</v>
       </c>
       <c r="F9">
-        <v>35.42612554349309</v>
+        <v>23.39089985501706</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.874718186583802</v>
+        <v>5.50407582241295</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.28405212049566</v>
+        <v>8.179288801555556</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>27.20080800569284</v>
+        <v>17.02694255103822</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,31 +749,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.97427599352037</v>
+        <v>29.68097562500853</v>
       </c>
       <c r="C10">
-        <v>10.53056907621581</v>
+        <v>15.33295010513173</v>
       </c>
       <c r="D10">
-        <v>8.141114242718215</v>
+        <v>5.50084614951984</v>
       </c>
       <c r="E10">
-        <v>12.56774175984621</v>
+        <v>7.055686269209614</v>
       </c>
       <c r="F10">
-        <v>35.25685513862346</v>
+        <v>23.87559066800594</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.83036124945763</v>
+        <v>5.370007031284805</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.34850287659259</v>
+        <v>8.60685138529095</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>27.03119049047493</v>
+        <v>17.16436819671776</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,31 +790,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.38005833456704</v>
+        <v>30.74735961147215</v>
       </c>
       <c r="C11">
-        <v>10.73697490172286</v>
+        <v>15.76715790726007</v>
       </c>
       <c r="D11">
-        <v>8.150235116588801</v>
+        <v>5.587702576156274</v>
       </c>
       <c r="E11">
-        <v>12.54470980996095</v>
+        <v>7.022172670708708</v>
       </c>
       <c r="F11">
-        <v>35.19022169840531</v>
+        <v>24.13192660942706</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.811106317825862</v>
+        <v>5.310136866609951</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.37887062419716</v>
+        <v>8.797559420925646</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>26.9616196010302</v>
+        <v>17.25701784952426</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,31 +831,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.5319817165591</v>
+        <v>31.14290718953044</v>
       </c>
       <c r="C12">
-        <v>10.81400007320556</v>
+        <v>15.9288936730572</v>
       </c>
       <c r="D12">
-        <v>8.153792882682142</v>
+        <v>5.620526938719482</v>
       </c>
       <c r="E12">
-        <v>12.5362161969064</v>
+        <v>7.010062853726398</v>
       </c>
       <c r="F12">
-        <v>35.16648782045977</v>
+        <v>24.23433624461958</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.803947030009223</v>
+        <v>5.287613692976343</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.3905156392658</v>
+        <v>8.869189279108104</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>26.93637170920278</v>
+        <v>17.29669168533771</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,31 +872,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.49934153505555</v>
+        <v>31.05808476602324</v>
       </c>
       <c r="C13">
-        <v>10.79746262307884</v>
+        <v>15.89418094928195</v>
       </c>
       <c r="D13">
-        <v>8.153022058547887</v>
+        <v>5.613460844774208</v>
       </c>
       <c r="E13">
-        <v>12.53803531149311</v>
+        <v>7.012644684842106</v>
       </c>
       <c r="F13">
-        <v>35.17153255836234</v>
+        <v>24.21204017102254</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.805483043843754</v>
+        <v>5.292458070275885</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.38800129761122</v>
+        <v>8.853789206141464</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>26.94176040920662</v>
+        <v>17.28793911544972</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,31 +913,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.39259269388036</v>
+        <v>30.78006657473358</v>
       </c>
       <c r="C14">
-        <v>10.74333485725698</v>
+        <v>15.78051803660827</v>
       </c>
       <c r="D14">
-        <v>8.150525743010272</v>
+        <v>5.590404483056935</v>
       </c>
       <c r="E14">
-        <v>12.54400646672028</v>
+        <v>7.021164603053043</v>
       </c>
       <c r="F14">
-        <v>35.1882390174657</v>
+        <v>24.14024386562387</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.810514674262048</v>
+        <v>5.308280972512041</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.37982578392721</v>
+        <v>8.803464432234726</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>26.95952042137388</v>
+        <v>17.26018842534214</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,31 +954,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.32697597961226</v>
+        <v>30.60869914424391</v>
       </c>
       <c r="C15">
-        <v>10.71003062635929</v>
+        <v>15.71054528787019</v>
       </c>
       <c r="D15">
-        <v>8.149010160764036</v>
+        <v>5.576272650661478</v>
       </c>
       <c r="E15">
-        <v>12.54769366177015</v>
+        <v>7.026459694992681</v>
       </c>
       <c r="F15">
-        <v>35.1986676129005</v>
+        <v>24.09696733029898</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.813613882779059</v>
+        <v>5.317991893992004</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.37483681901117</v>
+        <v>8.772561480541615</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>26.97054198677944</v>
+        <v>17.243795456561</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,31 +995,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.94752087255077</v>
+        <v>29.61012126429435</v>
       </c>
       <c r="C16">
-        <v>10.51692366078785</v>
+        <v>15.30419868028791</v>
       </c>
       <c r="D16">
-        <v>8.140532794442407</v>
+        <v>5.495161563723111</v>
       </c>
       <c r="E16">
-        <v>12.56927889423798</v>
+        <v>7.057956456856222</v>
       </c>
       <c r="F16">
-        <v>35.2614191057517</v>
+        <v>23.85957611867014</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.831638129198012</v>
+        <v>5.37394114484047</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.34653891864664</v>
+        <v>8.594308109481082</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>27.03589031951676</v>
+        <v>17.15894179599152</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,31 +1036,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.71177894044974</v>
+        <v>28.98267020725369</v>
       </c>
       <c r="C17">
-        <v>10.3964886133869</v>
+        <v>15.05015755640702</v>
       </c>
       <c r="D17">
-        <v>8.135518896727344</v>
+        <v>5.44530365383094</v>
       </c>
       <c r="E17">
-        <v>12.58292747640883</v>
+        <v>7.078288040859306</v>
       </c>
       <c r="F17">
-        <v>35.30257639969734</v>
+        <v>23.72326319737235</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.842931442350723</v>
+        <v>5.408542025230506</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.32944389687418</v>
+        <v>8.483951990557442</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>27.07792727926891</v>
+        <v>17.1147898618502</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,31 +1077,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.5751419595811</v>
+        <v>28.61627981476767</v>
       </c>
       <c r="C18">
-        <v>10.32651048857633</v>
+        <v>14.90230112607393</v>
       </c>
       <c r="D18">
-        <v>8.132704131509751</v>
+        <v>5.416596446449359</v>
       </c>
       <c r="E18">
-        <v>12.59092740419647</v>
+        <v>7.090345739664585</v>
       </c>
       <c r="F18">
-        <v>35.3272244792256</v>
+        <v>23.64822372877352</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.849513996285495</v>
+        <v>5.428549597812927</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.31971034230999</v>
+        <v>8.420123133569325</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>27.1028197932573</v>
+        <v>17.09221637314705</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,31 +1118,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.52870383960412</v>
+        <v>28.4912786689474</v>
       </c>
       <c r="C19">
-        <v>10.30269733443677</v>
+        <v>14.85194204327165</v>
       </c>
       <c r="D19">
-        <v>8.131763013234524</v>
+        <v>5.40687208369905</v>
       </c>
       <c r="E19">
-        <v>12.59366175455104</v>
+        <v>7.094490018191248</v>
       </c>
       <c r="F19">
-        <v>35.33573719381204</v>
+        <v>23.62338851358233</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.85175768697499</v>
+        <v>5.435342401245104</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.31643190186328</v>
+        <v>8.398452216170483</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>27.11137041704165</v>
+        <v>17.08505003189467</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,31 +1159,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.73698315834119</v>
+        <v>29.05003153719388</v>
       </c>
       <c r="C20">
-        <v>10.40938270318714</v>
+        <v>15.07738088774587</v>
       </c>
       <c r="D20">
-        <v>8.136045494387441</v>
+        <v>5.450614386252425</v>
       </c>
       <c r="E20">
-        <v>12.58145907933873</v>
+        <v>7.07608592333715</v>
       </c>
       <c r="F20">
-        <v>35.29809411801507</v>
+        <v>23.73742436931245</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.841720256588628</v>
+        <v>5.404847813280401</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.33125347847744</v>
+        <v>8.495736649124416</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>27.07337843791536</v>
+        <v>17.11919600875157</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,31 +1200,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.4239955578805</v>
+        <v>30.86195070506504</v>
       </c>
       <c r="C21">
-        <v>10.75926471585169</v>
+        <v>15.81397676095922</v>
       </c>
       <c r="D21">
-        <v>8.151256164338418</v>
+        <v>5.597178631212269</v>
       </c>
       <c r="E21">
-        <v>12.54224640711777</v>
+        <v>7.01864613135749</v>
       </c>
       <c r="F21">
-        <v>35.18329118952621</v>
+        <v>24.16118583007727</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.809033181254543</v>
+        <v>5.303629479522491</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.38222322800761</v>
+        <v>8.818262268754506</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>26.95427405455399</v>
+        <v>17.26821292271189</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,31 +1241,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.86281765702426</v>
+        <v>31.9980058227165</v>
       </c>
       <c r="C22">
-        <v>10.98128993499753</v>
+        <v>16.27970401821759</v>
       </c>
       <c r="D22">
-        <v>8.161802011738841</v>
+        <v>5.692573489491531</v>
       </c>
       <c r="E22">
-        <v>12.51794791324244</v>
+        <v>6.98450492348454</v>
       </c>
       <c r="F22">
-        <v>35.11700008018918</v>
+        <v>24.46934416925445</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.788440195462824</v>
+        <v>5.238335818096262</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.41637983770337</v>
+        <v>9.025615024288779</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>26.88282979775409</v>
+        <v>17.39246705789697</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,31 +1282,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.629581705507</v>
+        <v>31.39603612638783</v>
       </c>
       <c r="C23">
-        <v>10.86341437870539</v>
+        <v>16.03257840429783</v>
       </c>
       <c r="D23">
-        <v>8.156118675392115</v>
+        <v>5.641701002145505</v>
       </c>
       <c r="E23">
-        <v>12.53079500007771</v>
+        <v>7.002407507816844</v>
       </c>
       <c r="F23">
-        <v>35.1515787858581</v>
+        <v>24.30196147654711</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.799360818851545</v>
+        <v>5.273110065115929</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.39807432735969</v>
+        <v>8.915273256168231</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>26.92037368598078</v>
+        <v>17.3236100456636</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,31 +1323,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.72559176566823</v>
+        <v>29.01959511975055</v>
       </c>
       <c r="C24">
-        <v>10.40355558122436</v>
+        <v>15.06507883866554</v>
       </c>
       <c r="D24">
-        <v>8.135807208323662</v>
+        <v>5.448213537343654</v>
       </c>
       <c r="E24">
-        <v>12.58212246448974</v>
+        <v>7.077080353687028</v>
       </c>
       <c r="F24">
-        <v>35.30011748613903</v>
+        <v>23.73101174975024</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.842267553654322</v>
+        <v>5.406517607166496</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.33043507156161</v>
+        <v>8.490409996724546</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>27.07543271143611</v>
+        <v>17.11719525659596</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.711202308535</v>
+        <v>26.24561112669157</v>
       </c>
       <c r="C25">
-        <v>9.88075375985502</v>
+        <v>13.95525449486626</v>
       </c>
       <c r="D25">
-        <v>8.116545193993085</v>
+        <v>5.238442278883153</v>
       </c>
       <c r="E25">
-        <v>12.64320990978359</v>
+        <v>7.171445215071712</v>
       </c>
       <c r="F25">
-        <v>35.49760049959088</v>
+        <v>23.2428582552866</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.891875957499948</v>
+        <v>5.554518434861736</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.26128207412268</v>
+        <v>8.018792377449142</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>27.269961289148</v>
+        <v>17.00130439543718</v>
       </c>
     </row>
   </sheetData>
